--- a/文档/数据字典.xlsx
+++ b/文档/数据字典.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F4FA6B-95AA-40E4-9230-631E88C24AFF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3861C55-A378-4089-8474-A035B5826DB4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子项总额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,10 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理员用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,6 +431,26 @@
   </si>
   <si>
     <t>0-系统管理员  1-业务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -816,13 +820,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -830,849 +834,849 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
